--- a/Podman/checkpoint/podman_benchmark.xlsx
+++ b/Podman/checkpoint/podman_benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\gh\wsl_matlab\Podman\checkpoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D3F459-7431-4E7A-BD4C-8FD5511A3623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EACC6C-5332-4187-8D33-F747DB430828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{A315CC42-590E-42BC-8156-8F74CB38E80D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="44">
   <si>
     <t>OS</t>
   </si>
@@ -423,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -475,6 +475,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,10 +853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0616D3B-31E5-4FA1-9049-E329898F7779}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2637,112 +2638,112 @@
         <v>3.5529999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="9">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="10">
-        <v>12</v>
-      </c>
-      <c r="D34" s="11">
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34" s="5">
         <v>64</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="10" t="s">
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="11">
+      <c r="I34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="5">
         <v>6</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="4">
         <v>0.16600000000000001</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34">
         <v>7.391</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M34">
         <v>22.753</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="8">
         <v>0.17399999999999999</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="6">
         <v>9.7720000000000002</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="6">
         <f>SUM(K34:O34)</f>
         <v>40.256</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q34" s="6">
         <v>3.6509999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="2">
-        <v>12</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5">
         <v>64</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="5">
         <v>6</v>
       </c>
-      <c r="K35" s="1">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="L35" s="2">
-        <v>15.449</v>
-      </c>
-      <c r="M35" s="2">
-        <v>28.742999999999999</v>
-      </c>
-      <c r="N35" s="14">
-        <v>0.217</v>
-      </c>
-      <c r="O35" s="7">
-        <v>8.6549999999999994</v>
-      </c>
-      <c r="P35" s="7">
+      <c r="K35" s="4">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="L35">
+        <v>17.091000000000001</v>
+      </c>
+      <c r="M35">
+        <v>30.771000000000001</v>
+      </c>
+      <c r="N35">
+        <v>102.983</v>
+      </c>
+      <c r="O35" s="6">
+        <v>7.8109999999999999</v>
+      </c>
+      <c r="P35" s="6">
         <f>SUM(K35:O35)</f>
-        <v>53.32</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>4.1109999999999998</v>
+        <v>159.083</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>3.7770000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2765,10 +2766,10 @@
         <v>13</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>16</v>
@@ -2777,25 +2778,133 @@
         <v>6</v>
       </c>
       <c r="K36" s="9">
-        <v>0.17499999999999999</v>
+        <v>0.218</v>
       </c>
       <c r="L36" s="10">
-        <v>13.488</v>
+        <v>13.849</v>
       </c>
       <c r="M36" s="10">
-        <v>22.908000000000001</v>
-      </c>
-      <c r="N36" s="12">
-        <v>0.20300000000000001</v>
+        <v>24.56</v>
+      </c>
+      <c r="N36" s="33">
+        <v>115.295</v>
       </c>
       <c r="O36" s="13">
-        <v>8.0310000000000006</v>
+        <v>7.77</v>
       </c>
       <c r="P36" s="13">
         <f>SUM(K36:O36)</f>
+        <v>161.69200000000001</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>3.4279999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="2">
+        <v>12</v>
+      </c>
+      <c r="D37" s="3">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="3">
+        <v>6</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L37" s="2">
+        <v>15.449</v>
+      </c>
+      <c r="M37" s="2">
+        <v>28.742999999999999</v>
+      </c>
+      <c r="N37" s="14">
+        <v>0.217</v>
+      </c>
+      <c r="O37" s="7">
+        <v>8.6549999999999994</v>
+      </c>
+      <c r="P37" s="7">
+        <f>SUM(K37:O37)</f>
+        <v>53.32</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>4.1109999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="9">
+        <v>36</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="10">
+        <v>12</v>
+      </c>
+      <c r="D38" s="11">
+        <v>64</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="11">
+        <v>6</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L38" s="10">
+        <v>13.488</v>
+      </c>
+      <c r="M38" s="10">
+        <v>22.908000000000001</v>
+      </c>
+      <c r="N38" s="12">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="O38" s="13">
+        <v>8.0310000000000006</v>
+      </c>
+      <c r="P38" s="13">
+        <f>SUM(K38:O38)</f>
         <v>44.805</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q38" s="13">
         <v>3.6019999999999999</v>
       </c>
     </row>

--- a/Podman/checkpoint/podman_benchmark.xlsx
+++ b/Podman/checkpoint/podman_benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\gh\wsl_matlab\Podman\checkpoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EACC6C-5332-4187-8D33-F747DB430828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6FC92A-9D56-49A6-9117-10BAFA9444B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{A315CC42-590E-42BC-8156-8F74CB38E80D}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" activeTab="1" xr2:uid="{A315CC42-590E-42BC-8156-8F74CB38E80D}"/>
   </bookViews>
   <sheets>
     <sheet name="Container Specs" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="44">
   <si>
     <t>OS</t>
   </si>
@@ -475,7 +475,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,10 +853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0616D3B-31E5-4FA1-9049-E329898F7779}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>25</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>25</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>25</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>25</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>25</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>25</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>25</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>21</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>21</v>
@@ -2577,7 +2577,7 @@
         <v>8.1850000000000005</v>
       </c>
       <c r="P32" s="6">
-        <f>SUM(K32:O32)</f>
+        <f t="shared" ref="P32:P39" si="1">SUM(K32:O32)</f>
         <v>45.424999999999997</v>
       </c>
       <c r="Q32" s="6">
@@ -2586,7 +2586,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>21</v>
@@ -2631,7 +2631,7 @@
         <v>8.0559999999999992</v>
       </c>
       <c r="P33" s="6">
-        <f>SUM(K33:O33)</f>
+        <f t="shared" si="1"/>
         <v>53.564</v>
       </c>
       <c r="Q33" s="6">
@@ -2640,7 +2640,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>21</v>
@@ -2685,7 +2685,7 @@
         <v>9.7720000000000002</v>
       </c>
       <c r="P34" s="6">
-        <f>SUM(K34:O34)</f>
+        <f t="shared" si="1"/>
         <v>40.256</v>
       </c>
       <c r="Q34" s="6">
@@ -2694,7 +2694,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>21</v>
@@ -2739,7 +2739,7 @@
         <v>7.8109999999999999</v>
       </c>
       <c r="P35" s="6">
-        <f>SUM(K35:O35)</f>
+        <f t="shared" si="1"/>
         <v>159.083</v>
       </c>
       <c r="Q35" s="6">
@@ -2748,7 +2748,7 @@
     </row>
     <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>21</v>
@@ -2768,7 +2768,7 @@
       <c r="G36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I36" s="9" t="s">
@@ -2786,14 +2786,14 @@
       <c r="M36" s="10">
         <v>24.56</v>
       </c>
-      <c r="N36" s="33">
+      <c r="N36" s="10">
         <v>115.295</v>
       </c>
       <c r="O36" s="13">
         <v>7.77</v>
       </c>
       <c r="P36" s="13">
-        <f>SUM(K36:O36)</f>
+        <f t="shared" si="1"/>
         <v>161.69200000000001</v>
       </c>
       <c r="Q36" s="13">
@@ -2802,7 +2802,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>21</v>
@@ -2847,64 +2847,118 @@
         <v>8.6549999999999994</v>
       </c>
       <c r="P37" s="7">
-        <f>SUM(K37:O37)</f>
+        <f t="shared" si="1"/>
         <v>53.32</v>
       </c>
       <c r="Q37" s="7">
         <v>4.1109999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="9">
-        <v>36</v>
-      </c>
-      <c r="B38" s="9" t="s">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>19</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="10">
-        <v>12</v>
-      </c>
-      <c r="D38" s="11">
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38" s="5">
         <v>64</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="10" t="s">
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="11">
+      <c r="I38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="33">
         <v>6</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="4">
+        <v>0.154</v>
+      </c>
+      <c r="L38">
+        <v>8.2780000000000005</v>
+      </c>
+      <c r="M38">
+        <v>24.529</v>
+      </c>
+      <c r="N38" s="8">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="O38" s="6">
+        <v>9.5410000000000004</v>
+      </c>
+      <c r="P38" s="6">
+        <f t="shared" si="1"/>
+        <v>42.744</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>4.7480000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="9">
+        <v>37</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="10">
+        <v>12</v>
+      </c>
+      <c r="D39" s="11">
+        <v>64</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="11">
+        <v>6</v>
+      </c>
+      <c r="K39" s="9">
         <v>0.17499999999999999</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L39" s="10">
         <v>13.488</v>
       </c>
-      <c r="M38" s="10">
+      <c r="M39" s="10">
         <v>22.908000000000001</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N39" s="12">
         <v>0.20300000000000001</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O39" s="13">
         <v>8.0310000000000006</v>
       </c>
-      <c r="P38" s="13">
-        <f>SUM(K38:O38)</f>
+      <c r="P39" s="13">
+        <f t="shared" si="1"/>
         <v>44.805</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q39" s="13">
         <v>3.6019999999999999</v>
       </c>
     </row>
